--- a/Report_Template_without_pics.xlsx
+++ b/Report_Template_without_pics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t xml:space="preserve">Please make sure that all the information inside the red boxes is filled in.</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">J-135104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos</t>
   </si>
   <si>
     <t xml:space="preserve">DATE:</t>
@@ -241,12 +244,13 @@
     <numFmt numFmtId="165" formatCode="mmmm\ d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,18 +272,21 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -287,6 +294,7 @@
       <color rgb="FF2E75B5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -294,12 +302,22 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF2E75B5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -307,6 +325,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -314,12 +333,14 @@
       <color rgb="FF2E75B5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2E75B5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -327,6 +348,7 @@
       <color rgb="FF2E75B5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -334,12 +356,14 @@
       <color rgb="FF2E75B5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -347,6 +371,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -354,6 +379,14 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -361,6 +394,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -368,6 +402,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -375,12 +410,14 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -388,6 +425,7 @@
       <color rgb="FF000080"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -395,6 +433,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -402,6 +441,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -409,6 +449,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -416,12 +457,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -429,12 +472,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -443,6 +488,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -515,6 +561,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
@@ -552,13 +605,6 @@
       <left/>
       <right/>
       <top style="hair"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -742,7 +788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,7 +813,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,7 +821,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,87 +833,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -871,7 +925,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,15 +937,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,15 +957,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,75 +973,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,51 +1053,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,19 +1113,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1067,35 +1133,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1115,15 +1181,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1192,7 +1258,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -1204,15 +1270,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,8 +1291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="801000" y="542880"/>
-          <a:ext cx="1875600" cy="790920"/>
+          <a:off x="799920" y="552240"/>
+          <a:ext cx="1874520" cy="789120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,20 +1312,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="12" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="12" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1291,819 +1356,860 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="n">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="n">
         <v>45766</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="10"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="10"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="10"/>
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="11"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="30" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="30" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="30" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="30" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47" t="s">
+      <c r="F21" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
+      <c r="F22" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
+      <c r="A23" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="A24" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="46" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="D26" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="E26" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="63" t="s">
+      <c r="F26" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="G26" s="68"/>
+      <c r="H26" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="66"/>
+      <c r="J26" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="69"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="68" t="n">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="71" t="n">
         <v>900</v>
       </c>
-      <c r="E27" s="69" t="n">
+      <c r="E27" s="71" t="n">
         <v>1230</v>
       </c>
-      <c r="F27" s="70" t="n">
+      <c r="F27" s="72" t="n">
         <v>165</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="69" t="n">
+      <c r="G27" s="73"/>
+      <c r="H27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="71" t="n">
         <v>1245</v>
       </c>
-      <c r="J27" s="72" t="n">
+      <c r="J27" s="74" t="n">
         <v>1530</v>
       </c>
-      <c r="K27" s="66"/>
+      <c r="K27" s="69"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="66"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="69"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="66"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="66"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="69"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="66"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="80"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="85"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="A33" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
+      <c r="A34" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
+      <c r="A40" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85" t="s">
+      <c r="A45" s="89"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="86" t="s">
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="K45" s="86"/>
+      <c r="J45" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="91"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="88" t="s">
+      <c r="A46" s="89"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="92" t="s">
         <v>67</v>
       </c>
+      <c r="K46" s="93" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="92"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="97"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="92"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="97"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="92"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="97"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="92"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="97"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="92"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="97"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="92"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="97"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="95" t="s">
+      <c r="A53" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="K53" s="95"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="100"/>
     </row>
     <row r="54" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="93"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3052,9 +3158,10 @@
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
+    <mergeCell ref="M3:AE4"/>
     <mergeCell ref="G5:J6"/>
     <mergeCell ref="A7:E9"/>
     <mergeCell ref="G7:J8"/>
